--- a/public/excel_files/download/CERTIFICATE STATUS.xlsx
+++ b/public/excel_files/download/CERTIFICATE STATUS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="68">
   <si>
     <t>APP ID</t>
   </si>
@@ -109,6 +109,9 @@
     <t>(SCL) METS+ BULK UPLOAD</t>
   </si>
   <si>
+    <t>XYZ</t>
+  </si>
+  <si>
     <t>09/06/2018</t>
   </si>
   <si>
@@ -205,7 +208,7 @@
     <t>APP-4314</t>
   </si>
   <si>
-    <t>GCSS BASED MANIFEST</t>
+    <t>GCSS BASED MANIFEST_TEST</t>
   </si>
   <si>
     <t>CERT3</t>
@@ -637,7 +640,7 @@
   <sheetPr>
     <tabColor auto="1"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -811,7 +814,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -820,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -829,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -849,10 +852,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -867,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -896,10 +899,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -914,7 +917,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -943,16 +946,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -961,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -990,16 +993,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1008,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1037,13 +1040,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1055,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1084,10 +1087,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1096,34 +1099,34 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
         <v>54</v>
       </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
         <v>22</v>
@@ -1131,13 +1134,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1149,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1178,16 +1181,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1196,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -1225,48 +1228,1740 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="G37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" t="s">
         <v>22</v>
       </c>
     </row>
